--- a/biology/Botanique/Euphorbe_arborescente/Euphorbe_arborescente.xlsx
+++ b/biology/Botanique/Euphorbe_arborescente/Euphorbe_arborescente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia dendroides
-L’Euphorbe arborescente[1] (Euphorbia dendroides) est une plante vivace de la famille des Euphorbiacées, commune sur le pourtour méditerranéen.
+L’Euphorbe arborescente (Euphorbia dendroides) est une plante vivace de la famille des Euphorbiacées, commune sur le pourtour méditerranéen.
 </t>
         </is>
       </c>
@@ -512,22 +524,100 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Euphorbe arborescente est un arbrisseau à écorce rouge, de forme sphérique, très ramifié, pouvant atteindre 2 mètres de circonférence, à pousse basale et suc laiteux blanc.
 Les fleurs sont formées en groupe aux extrémités des branches, lancéolées à étroitement elliptiques, obtuses à pointe rapportée, jusqu’à 6,5 cm de long et 8 mm de large. Ses ombelles à 5-8 rayons fourchus, ramifiés, sont en position terminale.
 La pseudo-fleur en coupe, vert jaunâtre à ovaire dépassant à 3 stigmates, fourchue, présente des écailles à nectar plus ou moins lobées, jaunâtres à rougeâtres, arrondies sur le bord, avec de nombreuses étamines à l’intérieur.
-La capsule est nue, à trois loges et graines ovoïdes brun opaque, lisses. L'euphorbe perd ses feuilles en cas de sécheresse[2].
-Caractéristiques
-Organes reproducteurs
-Couleur dominante des fleurs : jaune
+La capsule est nue, à trois loges et graines ovoïdes brun opaque, lisses. L'euphorbe perd ses feuilles en cas de sécheresse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euphorbe_arborescente</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphorbe_arborescente</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Couleur dominante des fleurs : jaune
 Période de floraison : avril-juin
 Inflorescence : cyathe
 Sexualité : monoïque
 Ordre de maturation :
-Pollinisation : entomogame
-Graine
-Fruit : capsule
+Pollinisation : entomogame</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euphorbe_arborescente</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphorbe_arborescente</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Graine</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fruit : capsule
 Dissémination : myrmécochore
 			Une euphorbe arborescente au printemps.
 			Une euphorbe arborescente.
@@ -539,31 +629,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Euphorbe_arborescente</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Euphorbe_arborescente</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition est la région méditerranéenne centrale, des Baléares à la Crète.
 On la rencontre à proximité de la mer, sur les versants pierreux, rocheux.
